--- a/wide/synthetic_dataset_8.xlsx
+++ b/wide/synthetic_dataset_8.xlsx
@@ -11,6 +11,17 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
+  <si>
+    <t>not a date</t>
+  </si>
+  <si>
+    <t>soon</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70,9 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -369,515 +383,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:44">
       <c r="A1" s="1">
-        <v>45855</v>
+        <v>45936</v>
       </c>
       <c r="B1" s="1">
-        <v>45862</v>
+        <v>45943</v>
       </c>
       <c r="C1" s="1">
-        <v>45869</v>
-      </c>
-      <c r="D1" s="1">
-        <v>45876</v>
-      </c>
+        <v>45950</v>
+      </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="1">
-        <v>45883</v>
-      </c>
-      <c r="F1" s="1">
-        <v>45890</v>
-      </c>
-      <c r="G1" s="1">
-        <v>45897</v>
-      </c>
+        <v>45964</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="1">
-        <v>45904</v>
+        <v>45985</v>
       </c>
       <c r="I1" s="1">
-        <v>45911</v>
+        <v>45992</v>
       </c>
       <c r="J1" s="1">
-        <v>45918</v>
-      </c>
-      <c r="K1" s="1">
-        <v>45925</v>
-      </c>
-      <c r="L1" s="1">
-        <v>45932</v>
-      </c>
+        <v>45999</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2"/>
       <c r="M1" s="1">
-        <v>45939</v>
-      </c>
-      <c r="N1" s="1">
-        <v>45946</v>
-      </c>
+        <v>46020</v>
+      </c>
+      <c r="N1" s="2"/>
       <c r="O1" s="1">
-        <v>45953</v>
+        <v>46034</v>
       </c>
       <c r="P1" s="1">
-        <v>45960</v>
+        <v>46041</v>
       </c>
       <c r="Q1" s="1">
-        <v>45967</v>
-      </c>
-      <c r="R1" s="1">
-        <v>45974</v>
+        <v>46048</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="S1" s="1">
-        <v>45981</v>
-      </c>
-      <c r="T1" s="1">
-        <v>45988</v>
+        <v>46062</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="U1" s="1">
-        <v>45995</v>
-      </c>
-      <c r="V1" s="1">
-        <v>46002</v>
-      </c>
-      <c r="W1" s="1">
-        <v>46009</v>
-      </c>
+        <v>46076</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
       <c r="X1" s="1">
-        <v>46016</v>
+        <v>46097</v>
       </c>
       <c r="Y1" s="1">
-        <v>46023</v>
+        <v>46104</v>
       </c>
       <c r="Z1" s="1">
-        <v>46030</v>
+        <v>46111</v>
       </c>
       <c r="AA1" s="1">
-        <v>46037</v>
+        <v>46118</v>
       </c>
       <c r="AB1" s="1">
-        <v>46044</v>
+        <v>46125</v>
       </c>
       <c r="AC1" s="1">
-        <v>46051</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>46058</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>46065</v>
-      </c>
+        <v>46132</v>
+      </c>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
       <c r="AF1" s="1">
-        <v>46072</v>
+        <v>46153</v>
       </c>
       <c r="AG1" s="1">
-        <v>46079</v>
-      </c>
+        <v>46160</v>
+      </c>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="1">
+        <v>46174</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>46181</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>46188</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>46195</v>
+      </c>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="1">
+        <v>46209</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>46216</v>
+      </c>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="2"/>
     </row>
-    <row r="2" spans="1:33">
-      <c r="A2">
-        <v>83</v>
-      </c>
+    <row r="2" spans="1:44">
       <c r="B2">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="C2">
-        <v>112</v>
-      </c>
-      <c r="D2">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="E2">
-        <v>106</v>
-      </c>
-      <c r="F2">
-        <v>158</v>
-      </c>
-      <c r="G2">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="H2">
+        <v>53</v>
+      </c>
+      <c r="I2">
+        <v>56</v>
+      </c>
+      <c r="J2">
+        <v>191</v>
+      </c>
+      <c r="K2">
+        <v>162</v>
+      </c>
+      <c r="L2">
+        <v>72</v>
+      </c>
+      <c r="M2">
+        <v>147</v>
+      </c>
+      <c r="N2">
         <v>187</v>
       </c>
-      <c r="I2">
-        <v>135</v>
-      </c>
-      <c r="J2">
-        <v>161</v>
-      </c>
-      <c r="K2">
-        <v>154</v>
-      </c>
-      <c r="L2">
+      <c r="O2">
+        <v>105</v>
+      </c>
+      <c r="P2">
+        <v>142</v>
+      </c>
+      <c r="Q2">
+        <v>159</v>
+      </c>
+      <c r="S2">
+        <v>184</v>
+      </c>
+      <c r="T2">
+        <v>65</v>
+      </c>
+      <c r="U2">
         <v>146</v>
       </c>
-      <c r="M2">
-        <v>104</v>
-      </c>
-      <c r="N2">
+      <c r="V2">
+        <v>188</v>
+      </c>
+      <c r="W2">
         <v>177</v>
       </c>
-      <c r="O2">
-        <v>55</v>
-      </c>
-      <c r="P2">
-        <v>107</v>
-      </c>
-      <c r="Q2">
-        <v>157</v>
-      </c>
-      <c r="R2">
-        <v>157</v>
-      </c>
-      <c r="S2">
+      <c r="X2">
+        <v>156</v>
+      </c>
+      <c r="Y2">
+        <v>96</v>
+      </c>
+      <c r="Z2">
+        <v>59</v>
+      </c>
+      <c r="AB2">
+        <v>111</v>
+      </c>
+      <c r="AC2">
+        <v>96</v>
+      </c>
+      <c r="AD2">
+        <v>84</v>
+      </c>
+      <c r="AE2">
+        <v>187</v>
+      </c>
+      <c r="AF2">
+        <v>134</v>
+      </c>
+      <c r="AG2">
+        <v>134</v>
+      </c>
+      <c r="AH2">
+        <v>171</v>
+      </c>
+      <c r="AI2">
+        <v>58</v>
+      </c>
+      <c r="AJ2">
+        <v>102</v>
+      </c>
+      <c r="AK2">
+        <v>179</v>
+      </c>
+      <c r="AL2">
+        <v>165</v>
+      </c>
+      <c r="AN2">
+        <v>129</v>
+      </c>
+      <c r="AO2">
         <v>86</v>
       </c>
-      <c r="T2">
-        <v>63</v>
-      </c>
-      <c r="U2">
-        <v>61</v>
-      </c>
-      <c r="V2">
-        <v>88</v>
-      </c>
-      <c r="W2">
-        <v>176</v>
-      </c>
-      <c r="X2">
-        <v>177</v>
-      </c>
-      <c r="Y2">
-        <v>163</v>
-      </c>
-      <c r="Z2">
-        <v>113</v>
-      </c>
-      <c r="AA2">
-        <v>170</v>
-      </c>
-      <c r="AB2">
-        <v>198</v>
-      </c>
-      <c r="AC2">
-        <v>144</v>
-      </c>
-      <c r="AD2">
-        <v>131</v>
-      </c>
-      <c r="AE2">
-        <v>55</v>
-      </c>
-      <c r="AF2">
-        <v>176</v>
-      </c>
-      <c r="AG2">
-        <v>105</v>
+      <c r="AP2">
+        <v>174</v>
+      </c>
+      <c r="AQ2">
+        <v>199</v>
+      </c>
+      <c r="AR2">
+        <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:44">
       <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3">
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
         <v>5</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
       </c>
       <c r="L3">
         <v>8</v>
       </c>
       <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>8</v>
+      </c>
+      <c r="S3">
         <v>4</v>
       </c>
-      <c r="N3">
+      <c r="U3">
+        <v>9</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>6</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>6</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
         <v>5</v>
       </c>
-      <c r="O3">
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
         <v>9</v>
       </c>
-      <c r="P3">
+      <c r="AF3">
+        <v>7</v>
+      </c>
+      <c r="AG3">
         <v>5</v>
       </c>
-      <c r="Q3">
+      <c r="AH3">
+        <v>3</v>
+      </c>
+      <c r="AI3">
+        <v>6</v>
+      </c>
+      <c r="AJ3">
+        <v>6</v>
+      </c>
+      <c r="AK3">
+        <v>10</v>
+      </c>
+      <c r="AL3">
+        <v>8</v>
+      </c>
+      <c r="AM3">
+        <v>4</v>
+      </c>
+      <c r="AO3">
+        <v>4</v>
+      </c>
+      <c r="AQ3">
+        <v>3</v>
+      </c>
+      <c r="AR3">
         <v>5</v>
       </c>
-      <c r="R3">
+    </row>
+    <row r="4" spans="1:44">
+      <c r="B4">
+        <v>74</v>
+      </c>
+      <c r="C4">
+        <v>77</v>
+      </c>
+      <c r="D4">
+        <v>121</v>
+      </c>
+      <c r="E4">
+        <v>63</v>
+      </c>
+      <c r="F4">
+        <v>183</v>
+      </c>
+      <c r="G4">
+        <v>162</v>
+      </c>
+      <c r="J4">
+        <v>131</v>
+      </c>
+      <c r="K4">
+        <v>105</v>
+      </c>
+      <c r="L4">
+        <v>81</v>
+      </c>
+      <c r="M4">
+        <v>182</v>
+      </c>
+      <c r="N4">
+        <v>164</v>
+      </c>
+      <c r="O4">
+        <v>63</v>
+      </c>
+      <c r="P4">
+        <v>144</v>
+      </c>
+      <c r="Q4">
+        <v>149</v>
+      </c>
+      <c r="R4">
+        <v>147</v>
+      </c>
+      <c r="S4">
+        <v>124</v>
+      </c>
+      <c r="T4">
+        <v>61</v>
+      </c>
+      <c r="V4">
+        <v>153</v>
+      </c>
+      <c r="W4">
+        <v>184</v>
+      </c>
+      <c r="X4">
+        <v>146</v>
+      </c>
+      <c r="Y4">
+        <v>89</v>
+      </c>
+      <c r="Z4">
+        <v>178</v>
+      </c>
+      <c r="AA4">
+        <v>62</v>
+      </c>
+      <c r="AB4">
+        <v>72</v>
+      </c>
+      <c r="AC4">
+        <v>81</v>
+      </c>
+      <c r="AG4">
+        <v>133</v>
+      </c>
+      <c r="AH4">
+        <v>158</v>
+      </c>
+      <c r="AI4">
+        <v>76</v>
+      </c>
+      <c r="AK4">
+        <v>90</v>
+      </c>
+      <c r="AL4">
+        <v>55</v>
+      </c>
+      <c r="AM4">
+        <v>98</v>
+      </c>
+      <c r="AN4">
+        <v>59</v>
+      </c>
+      <c r="AO4">
+        <v>163</v>
+      </c>
+      <c r="AQ4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="S3">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="M5">
         <v>9</v>
       </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
+      <c r="N5">
         <v>8</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>10</v>
-      </c>
-      <c r="Y3">
-        <v>10</v>
-      </c>
-      <c r="Z3">
-        <v>10</v>
-      </c>
-      <c r="AA3">
-        <v>9</v>
-      </c>
-      <c r="AB3">
-        <v>10</v>
-      </c>
-      <c r="AC3">
-        <v>4</v>
-      </c>
-      <c r="AD3">
-        <v>8</v>
-      </c>
-      <c r="AE3">
-        <v>7</v>
-      </c>
-      <c r="AF3">
-        <v>2</v>
-      </c>
-      <c r="AG3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4">
-        <v>119</v>
-      </c>
-      <c r="B4">
-        <v>137</v>
-      </c>
-      <c r="C4">
-        <v>186</v>
-      </c>
-      <c r="D4">
-        <v>116</v>
-      </c>
-      <c r="E4">
-        <v>129</v>
-      </c>
-      <c r="F4">
-        <v>95</v>
-      </c>
-      <c r="G4">
-        <v>93</v>
-      </c>
-      <c r="H4">
-        <v>136</v>
-      </c>
-      <c r="I4">
-        <v>125</v>
-      </c>
-      <c r="J4">
-        <v>129</v>
-      </c>
-      <c r="K4">
-        <v>74</v>
-      </c>
-      <c r="L4">
-        <v>147</v>
-      </c>
-      <c r="M4">
-        <v>91</v>
-      </c>
-      <c r="N4">
-        <v>50</v>
-      </c>
-      <c r="O4">
-        <v>111</v>
-      </c>
-      <c r="P4">
-        <v>109</v>
-      </c>
-      <c r="Q4">
-        <v>88</v>
-      </c>
-      <c r="R4">
-        <v>77</v>
-      </c>
-      <c r="S4">
-        <v>102</v>
-      </c>
-      <c r="T4">
-        <v>170</v>
-      </c>
-      <c r="U4">
-        <v>178</v>
-      </c>
-      <c r="V4">
-        <v>115</v>
-      </c>
-      <c r="W4">
-        <v>194</v>
-      </c>
-      <c r="X4">
-        <v>56</v>
-      </c>
-      <c r="Y4">
-        <v>112</v>
-      </c>
-      <c r="Z4">
-        <v>158</v>
-      </c>
-      <c r="AA4">
-        <v>183</v>
-      </c>
-      <c r="AB4">
-        <v>55</v>
-      </c>
-      <c r="AC4">
-        <v>88</v>
-      </c>
-      <c r="AD4">
-        <v>146</v>
-      </c>
-      <c r="AE4">
-        <v>69</v>
-      </c>
-      <c r="AF4">
-        <v>142</v>
-      </c>
-      <c r="AG4">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
       </c>
       <c r="O5">
         <v>7</v>
       </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
       <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S5">
         <v>10</v>
       </c>
       <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>8</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>9</v>
+      </c>
+      <c r="Z5">
+        <v>6</v>
+      </c>
+      <c r="AA5">
+        <v>9</v>
+      </c>
+      <c r="AB5">
+        <v>6</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
         <v>5</v>
       </c>
-      <c r="U5">
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>6</v>
+      </c>
+      <c r="AK5">
+        <v>3</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>7</v>
+      </c>
+      <c r="AN5">
+        <v>8</v>
+      </c>
+      <c r="AO5">
+        <v>2</v>
+      </c>
+      <c r="AQ5">
         <v>9</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>4</v>
-      </c>
-      <c r="X5">
-        <v>8</v>
-      </c>
-      <c r="Y5">
-        <v>3</v>
-      </c>
-      <c r="Z5">
-        <v>3</v>
-      </c>
-      <c r="AA5">
-        <v>3</v>
-      </c>
-      <c r="AB5">
-        <v>8</v>
-      </c>
-      <c r="AC5">
-        <v>2</v>
-      </c>
-      <c r="AD5">
-        <v>10</v>
-      </c>
-      <c r="AE5">
-        <v>8</v>
-      </c>
-      <c r="AF5">
-        <v>7</v>
-      </c>
-      <c r="AG5">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
